--- a/lab_3/resultat.xlsx
+++ b/lab_3/resultat.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>u1</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>beta 7</t>
+  </si>
+  <si>
+    <t>u8</t>
   </si>
 </sst>
 </file>
@@ -201,9 +204,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0000000000000000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,8 +252,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,8 +285,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -347,6 +365,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -355,20 +384,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,6 +409,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Beräkning" xfId="3" builtinId="22"/>
@@ -391,11 +421,26 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="35">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
-        <i/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -404,23 +449,17 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -553,42 +592,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i/>
@@ -654,7 +657,34 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -672,7 +702,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="178" formatCode="0.0000000000000000%"/>
+      <numFmt numFmtId="164" formatCode="0.0000000000000000%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -694,6 +724,9 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -708,12 +741,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell1" displayName="Tabell1" ref="A2:E10" totalsRowShown="0" headerRowCellStyle="Förklarande text" dataCellStyle="Indata">
-  <autoFilter ref="A2:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell1" displayName="Tabell1" ref="A2:E9" totalsRowShown="0" headerRowCellStyle="Förklarande text" dataCellStyle="Indata">
+  <autoFilter ref="A2:E9"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Iteration" dataCellStyle="Förklarande text"/>
     <tableColumn id="3" name="DC" dataCellStyle="Indata"/>
-    <tableColumn id="4" name="Övre" dataDxfId="32" dataCellStyle="Beräkning">
+    <tableColumn id="4" name="Övre" dataDxfId="34" dataCellStyle="Beräkning">
       <calculatedColumnFormula>Tabell1[[#This Row],[DC]]+SUM(B38:H38)/50*300</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Undre" dataCellStyle="Indata"/>
@@ -726,10 +759,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabell2" displayName="Tabell2" ref="A35:H43" totalsRowShown="0">
-  <autoFilter ref="A35:H43"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Iteration" dataDxfId="0" dataCellStyle="Förklarande text">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabell2" displayName="Tabell2" ref="A35:I42" totalsRowShown="0">
+  <autoFilter ref="A35:I42"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Iteration" dataDxfId="32" dataCellStyle="Förklarande text">
       <calculatedColumnFormula>A13</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="u1" dataDxfId="31"/>
@@ -739,14 +772,17 @@
     <tableColumn id="6" name="u5" dataDxfId="27"/>
     <tableColumn id="7" name="u6" dataDxfId="26"/>
     <tableColumn id="8" name="u7" dataDxfId="25"/>
+    <tableColumn id="10" name="u8" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Tabell2[[#This Row],[u1]:[u7]])/50</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabell3" displayName="Tabell3" ref="A47:H55" totalsRowShown="0">
-  <autoFilter ref="A47:H55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabell3" displayName="Tabell3" ref="A47:H54" totalsRowShown="0">
+  <autoFilter ref="A47:H54"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Iteration" dataDxfId="24" dataCellStyle="Förklarande text">
       <calculatedColumnFormula>A13</calculatedColumnFormula>
@@ -759,55 +795,55 @@
     <tableColumn id="7" name="bin6" dataDxfId="18"/>
     <tableColumn id="8" name="bin7" dataDxfId="17"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabell25" displayName="Tabell25" ref="A24:H32" totalsRowShown="0">
-  <autoFilter ref="A24:H32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabell25" displayName="Tabell25" ref="A24:H31" totalsRowShown="0">
+  <autoFilter ref="A24:H31"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Iteration" dataDxfId="1" dataCellStyle="Förklarande text">
+    <tableColumn id="1" name="Iteration" dataDxfId="16" dataCellStyle="Förklarande text">
       <calculatedColumnFormula>A13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="cf_c 1" dataDxfId="16"/>
-    <tableColumn id="3" name="cf_c 2" dataDxfId="15"/>
-    <tableColumn id="4" name="cf_c 3" dataDxfId="14" dataCellStyle="Procent"/>
-    <tableColumn id="5" name="cf_c 4" dataDxfId="13"/>
-    <tableColumn id="6" name="cf_c 5" dataDxfId="12"/>
-    <tableColumn id="7" name="cf_c 6" dataDxfId="11"/>
-    <tableColumn id="8" name="cf_c 7" dataDxfId="10"/>
+    <tableColumn id="2" name="cf_c 1" dataDxfId="15"/>
+    <tableColumn id="3" name="cf_c 2" dataDxfId="14"/>
+    <tableColumn id="4" name="cf_c 3" dataDxfId="13" dataCellStyle="Procent"/>
+    <tableColumn id="5" name="cf_c 4" dataDxfId="12"/>
+    <tableColumn id="6" name="cf_c 5" dataDxfId="11"/>
+    <tableColumn id="7" name="cf_c 6" dataDxfId="10"/>
+    <tableColumn id="8" name="cf_c 7" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabell256" displayName="Tabell256" ref="A12:H20" totalsRowShown="0">
-  <autoFilter ref="A12:H20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabell256" displayName="Tabell256" ref="A12:H19" totalsRowShown="0">
+  <autoFilter ref="A12:H19"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Iteration" dataDxfId="9" dataCellStyle="Förklarande text">
+    <tableColumn id="1" name="Iteration" dataDxfId="8" dataCellStyle="Förklarande text">
       <calculatedColumnFormula>A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="beta 1" dataDxfId="8">
+    <tableColumn id="2" name="beta 1" dataDxfId="7">
       <calculatedColumnFormula>IF(B25&lt;0,ABS(B25),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="beta 2" dataDxfId="7">
+    <tableColumn id="3" name="beta 2" dataDxfId="6">
       <calculatedColumnFormula>IF(C25&lt;0,ABS(C25),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="beta 3" dataDxfId="6" dataCellStyle="Procent">
+    <tableColumn id="4" name="beta 3" dataDxfId="5" dataCellStyle="Procent">
       <calculatedColumnFormula>IF(D25&lt;0,ABS(D25),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="beta 4" dataDxfId="5">
+    <tableColumn id="5" name="beta 4" dataDxfId="4">
       <calculatedColumnFormula>IF(E25&lt;0,ABS(E25),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="beta 5" dataDxfId="4">
+    <tableColumn id="6" name="beta 5" dataDxfId="3">
       <calculatedColumnFormula>IF(F25&lt;0,ABS(F25),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="beta 6" dataDxfId="3">
+    <tableColumn id="7" name="beta 6" dataDxfId="2">
       <calculatedColumnFormula>IF(G25&lt;0,ABS(G25),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="beta 7" dataDxfId="2">
+    <tableColumn id="8" name="beta 7" dataDxfId="1">
       <calculatedColumnFormula>IF(H25&lt;0,ABS(H25),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1078,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I38" sqref="I38:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,30 +1130,30 @@
     <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G2">
@@ -1126,45 +1162,60 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="M2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
         <v>132425</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>Tabell1[[#This Row],[DC]]+SUM(B36:H36)/50*300</f>
         <v>132425</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="8"/>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>129940</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
         <v>130445</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f>Tabell1[[#This Row],[DC]]+SUM(B37:H37)/50*300</f>
         <v>130745</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>126645</v>
       </c>
-      <c r="E4" s="8">
-        <f>(C4-D4)/D4</f>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E10" si="0">(C4-D4)/D4</f>
         <v>3.2373958703462435E-2</v>
       </c>
       <c r="G4">
@@ -1173,23 +1224,33 @@
       <c r="H4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="M4">
+        <v>130045</v>
+      </c>
+      <c r="N4">
+        <f>M4+600</f>
+        <v>130645</v>
+      </c>
+      <c r="O4">
+        <v>130117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>129015</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>Tabell1[[#This Row],[DC]]+SUM(B38:H38)/50*300</f>
         <v>130215</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>129265</v>
       </c>
-      <c r="E5" s="8">
-        <f>(C5-D5)/D5</f>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
         <v>7.3492438014930569E-3</v>
       </c>
       <c r="G5">
@@ -1198,23 +1259,30 @@
       <c r="H5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="M5">
+        <v>129517</v>
+      </c>
+      <c r="N5">
+        <f>M5+600</f>
+        <v>130117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>129230</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f>Tabell1[[#This Row],[DC]]+SUM(B39:H39)/50*300</f>
         <v>130130</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>129565</v>
       </c>
-      <c r="E6" s="8">
-        <f>(C6-D6)/D6</f>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>4.3607455717207576E-3</v>
       </c>
       <c r="G6">
@@ -1224,22 +1292,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>128919</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f>Tabell1[[#This Row],[DC]]+SUM(B40:H40)/50*300</f>
         <v>130119</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>129565</v>
       </c>
-      <c r="E7" s="10">
-        <f>(C7-D7)/D7</f>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
         <v>4.27584610041292E-3</v>
       </c>
       <c r="G7">
@@ -1249,22 +1317,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>128690</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>Tabell1[[#This Row],[DC]]+SUM(B41:H41)/50*300</f>
         <v>129890</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>129830</v>
       </c>
-      <c r="E8" s="6">
-        <f>(C8-D8)/D8</f>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
         <v>4.6214280212585691E-4</v>
       </c>
       <c r="G8">
@@ -1274,43 +1342,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>129517</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>Tabell1[[#This Row],[DC]]+SUM(B42:H42)/50*300</f>
         <v>130117</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>129890</v>
       </c>
-      <c r="E9" s="10">
-        <f>(C9-D9)/D9</f>
-        <v>1.7476326122103317E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
-        <v>7</v>
-      </c>
-      <c r="B10" s="21">
-        <v>128690</v>
-      </c>
-      <c r="C10" s="4">
-        <f>Tabell1[[#This Row],[DC]]+SUM(B43:H43)/50*300</f>
-        <v>129890</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="10" t="e">
-        <f>(C10-D10)/D10</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="9">
+        <f>(C8-D9)/D9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1336,297 +1387,273 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
-        <f>A3</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="13">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <f t="shared" ref="A13:A20" si="1">A3</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="12">
         <f>IF(B25&lt;0,ABS(B25),0)</f>
         <v>50</v>
       </c>
-      <c r="C13" s="13">
-        <f t="shared" ref="C13:H13" si="0">IF(C25&lt;0,ABS(C25),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="13">
-        <f t="shared" si="0"/>
+      <c r="C13" s="12">
+        <f t="shared" ref="C13:H13" si="2">IF(C25&lt;0,ABS(C25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="E13" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <f t="shared" si="0"/>
+      <c r="E13" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="H13" s="13">
-        <f t="shared" si="0"/>
+      <c r="H13" s="12">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <f>A4</f>
-        <v>1</v>
-      </c>
-      <c r="B14" s="13">
-        <f t="shared" ref="B14:H14" si="1">IF(B26&lt;0,ABS(B26),0)</f>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B14" s="12">
+        <f t="shared" ref="B14:H14" si="3">IF(B26&lt;0,ABS(B26),0)</f>
         <v>50</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="13">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12">
+        <f t="shared" ref="B15:H15" si="4">IF(B27&lt;0,ABS(B27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="E14" s="13">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12">
+        <f t="shared" ref="B16:H16" si="5">IF(B28&lt;0,ABS(B28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="13">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12">
+        <f t="shared" ref="B17:H17" si="6">IF(B29&lt;0,ABS(B29),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="13">
+        <v>5</v>
+      </c>
+      <c r="B18" s="12">
+        <f t="shared" ref="B18:H18" si="7">IF(B30&lt;0,ABS(B30),0)</f>
+        <v>13</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="H14" s="13">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <f>A5</f>
-        <v>2</v>
-      </c>
-      <c r="B15" s="13">
-        <f t="shared" ref="B15:H15" si="2">IF(B27&lt;0,ABS(B27),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="13">
-        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B19" s="12">
+        <f t="shared" ref="B19:H19" si="8">IF(B31&lt;0,ABS(B31),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="D15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="13">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="H15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <f>A6</f>
-        <v>3</v>
-      </c>
-      <c r="B16" s="13">
-        <f t="shared" ref="B16:H16" si="3">IF(B28&lt;0,ABS(B28),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="13">
-        <f t="shared" si="3"/>
+      <c r="D19" s="12">
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="E16" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="13">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <f>A7</f>
-        <v>4</v>
-      </c>
-      <c r="B17" s="13">
-        <f t="shared" ref="B17:H17" si="4">IF(B29&lt;0,ABS(B29),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="13">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="H17" s="13">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <f>A8</f>
-        <v>5</v>
-      </c>
-      <c r="B18" s="13">
-        <f t="shared" ref="B18:H18" si="5">IF(B30&lt;0,ABS(B30),0)</f>
-        <v>13</v>
-      </c>
-      <c r="C18" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="H18" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <f>A9</f>
-        <v>6</v>
-      </c>
-      <c r="B19" s="13">
-        <f t="shared" ref="B19:H19" si="6">IF(B31&lt;0,ABS(B31),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="13">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="D19" s="13">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="E19" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="13">
-        <f t="shared" si="6"/>
+      <c r="E19" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="H19" s="13">
-        <f t="shared" si="6"/>
+      <c r="H19" s="12">
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <f>A10</f>
-        <v>7</v>
-      </c>
-      <c r="B20" s="13">
-        <f t="shared" ref="B20:H20" si="7">IF(B32&lt;0,ABS(B32),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1655,218 +1682,215 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="A25" s="16">
         <f>A13</f>
         <v>0</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>-50</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>23</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>-24</v>
       </c>
-      <c r="E25" s="13">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13">
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
         <v>6</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="12">
         <v>-60</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="12">
         <v>-20</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
-        <f t="shared" ref="A26:A30" si="8">A14</f>
-        <v>1</v>
-      </c>
-      <c r="B26" s="13">
+      <c r="A26" s="16">
+        <f t="shared" ref="A26:A30" si="9">A14</f>
+        <v>1</v>
+      </c>
+      <c r="B26" s="12">
         <v>-50</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>23</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>-27</v>
       </c>
-      <c r="E26" s="13">
-        <v>0</v>
-      </c>
-      <c r="F26" s="13">
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
         <v>6</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="12">
         <v>-26</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="12">
         <v>-20</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
-        <f t="shared" si="8"/>
+      <c r="A27" s="16">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="B27" s="13">
-        <v>0</v>
-      </c>
-      <c r="C27" s="13">
+      <c r="B27" s="12">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12">
         <v>-13</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>5</v>
       </c>
-      <c r="E27" s="13">
-        <v>0</v>
-      </c>
-      <c r="F27" s="13">
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
         <v>6</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="12">
         <v>-26</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
-        <f t="shared" si="8"/>
+      <c r="A28" s="16">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="B28" s="13">
-        <v>0</v>
-      </c>
-      <c r="C28" s="13">
-        <v>0</v>
-      </c>
-      <c r="D28" s="14">
+      <c r="B28" s="12">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+      <c r="D28" s="13">
         <v>-24</v>
       </c>
-      <c r="E28" s="13">
-        <v>0</v>
-      </c>
-      <c r="F28" s="13">
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
         <v>6</v>
       </c>
-      <c r="G28" s="13">
-        <v>0</v>
-      </c>
-      <c r="H28" s="13">
+      <c r="G28" s="12">
+        <v>0</v>
+      </c>
+      <c r="H28" s="12">
         <v>-46</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
-        <f t="shared" si="8"/>
+      <c r="A29" s="16">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="B29" s="13">
-        <v>0</v>
-      </c>
-      <c r="C29" s="13">
-        <v>0</v>
-      </c>
-      <c r="D29" s="14">
-        <v>0</v>
-      </c>
-      <c r="E29" s="13">
-        <v>0</v>
-      </c>
-      <c r="F29" s="13">
+      <c r="B29" s="12">
+        <v>0</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12">
         <v>6</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="12">
         <v>-23</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="12">
         <v>-23</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
-        <f t="shared" si="8"/>
+      <c r="A30" s="16">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="18">
         <v>-13</v>
       </c>
-      <c r="C30" s="19">
-        <v>0</v>
-      </c>
-      <c r="D30" s="20">
+      <c r="C30" s="18">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19">
         <v>5</v>
       </c>
-      <c r="E30" s="19">
-        <v>0</v>
-      </c>
-      <c r="F30" s="19">
+      <c r="E30" s="18">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
         <v>6</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="18">
         <v>-26</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <f>A19</f>
         <v>6</v>
       </c>
-      <c r="B31" s="19">
-        <v>0</v>
-      </c>
-      <c r="C31" s="19">
+      <c r="B31" s="18">
+        <v>0</v>
+      </c>
+      <c r="C31" s="18">
         <v>-13</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="19">
         <v>-24</v>
       </c>
-      <c r="E31" s="19">
-        <v>0</v>
-      </c>
-      <c r="F31" s="19">
+      <c r="E31" s="18">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
         <v>6</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="18">
         <v>-12</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="18">
         <v>-34</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <f>A20</f>
-        <v>7</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1891,512 +1915,516 @@
       <c r="H35" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
-        <f>A13</f>
-        <v>0</v>
-      </c>
-      <c r="B36" s="13">
-        <v>0</v>
-      </c>
-      <c r="C36" s="13">
-        <v>0</v>
-      </c>
-      <c r="D36" s="13">
-        <v>0</v>
-      </c>
-      <c r="E36" s="13">
-        <v>0</v>
-      </c>
-      <c r="F36" s="13">
-        <v>0</v>
-      </c>
-      <c r="G36" s="13">
-        <v>0</v>
-      </c>
-      <c r="H36" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
-        <f>A14</f>
-        <v>1</v>
-      </c>
-      <c r="B37" s="13">
-        <v>0</v>
-      </c>
-      <c r="C37" s="13">
-        <v>0</v>
-      </c>
-      <c r="D37" s="14">
-        <v>0</v>
-      </c>
-      <c r="E37" s="13">
-        <v>0</v>
-      </c>
-      <c r="F37" s="13">
-        <v>0</v>
-      </c>
-      <c r="G37" s="13">
+      <c r="I35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <f t="shared" ref="A36:A43" si="10">A13</f>
+        <v>0</v>
+      </c>
+      <c r="B36" s="12">
+        <v>0</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <f>SUM(Tabell2[[#This Row],[u1]:[u7]])/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B37" s="12">
+        <v>0</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12">
         <v>50</v>
       </c>
-      <c r="H37" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
-        <f>A15</f>
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
+        <f>SUM(Tabell2[[#This Row],[u1]:[u7]])/50</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <f>B49*50</f>
         <v>50</v>
       </c>
-      <c r="C38" s="13">
-        <f t="shared" ref="C38:H38" si="9">C49*50</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="13">
-        <f t="shared" si="9"/>
-        <v>50</v>
-      </c>
-      <c r="E38" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="13">
-        <f t="shared" si="9"/>
-        <v>50</v>
-      </c>
-      <c r="H38" s="13">
-        <f t="shared" si="9"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
-        <f>A16</f>
-        <v>3</v>
-      </c>
-      <c r="B39" s="13">
-        <f t="shared" ref="B39:H39" si="10">B50*50</f>
-        <v>50</v>
-      </c>
-      <c r="C39" s="13">
-        <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
-      <c r="D39" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="13">
-        <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
-      <c r="H39" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
-        <f>A17</f>
-        <v>4</v>
-      </c>
-      <c r="B40" s="13">
-        <f t="shared" ref="B40:H40" si="11">B51*50</f>
-        <v>50</v>
-      </c>
-      <c r="C40" s="13">
+      <c r="C38" s="12">
+        <f t="shared" ref="C38:H38" si="11">C49*50</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="12">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="D40" s="13">
+      <c r="E38" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="12">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="E40" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="13">
+      <c r="H38" s="12">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="H40" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
-        <f>A18</f>
-        <v>5</v>
-      </c>
-      <c r="B41" s="13">
-        <f t="shared" ref="B41:H41" si="12">B52*50</f>
+      <c r="I38" s="12">
+        <f>SUM(Tabell2[[#This Row],[u1]:[u7]])/50</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B39" s="12">
+        <f t="shared" ref="B39:H39" si="12">B50*50</f>
         <v>50</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C39" s="12">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D39" s="12">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E39" s="12">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F39" s="12">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G39" s="12">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H39" s="12">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="12">
+        <f>SUM(Tabell2[[#This Row],[u1]:[u7]])/50</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="B40" s="12">
+        <f t="shared" ref="B40:H40" si="13">B51*50</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
+      <c r="C40" s="12">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="D40" s="12">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="E40" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="12">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="H40" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
+        <f>SUM(Tabell2[[#This Row],[u1]:[u7]])/50</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="B41" s="12">
+        <f t="shared" ref="B41:H41" si="14">B52*50</f>
+        <v>50</v>
+      </c>
+      <c r="C41" s="12">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="D41" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="12">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="H41" s="12">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="I41" s="12">
+        <f>SUM(Tabell2[[#This Row],[u1]:[u7]])/50</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="21">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="B42" s="12">
+        <f t="shared" ref="B42:H42" si="15">B53*50</f>
+        <v>50</v>
+      </c>
+      <c r="C42" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="12">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="H42" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="12">
+        <f>SUM(Tabell2[[#This Row],[u1]:[u7]])/50</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <f>A13</f>
+        <v>0</v>
+      </c>
+      <c r="B48" s="12">
+        <v>0</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+      <c r="F48" s="12">
+        <v>0</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <f t="shared" ref="A49:A53" si="16">A14</f>
+        <v>1</v>
+      </c>
+      <c r="B49" s="12">
+        <v>1</v>
+      </c>
+      <c r="C49" s="12">
+        <v>0</v>
+      </c>
+      <c r="D49" s="13">
+        <v>1</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0</v>
+      </c>
+      <c r="F49" s="12">
+        <v>0</v>
+      </c>
+      <c r="G49" s="12">
+        <v>1</v>
+      </c>
+      <c r="H49" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="B50" s="12">
+        <v>1</v>
+      </c>
+      <c r="C50" s="12">
+        <v>1</v>
+      </c>
+      <c r="D50" s="13">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0</v>
+      </c>
+      <c r="F50" s="12">
+        <v>0</v>
+      </c>
+      <c r="G50" s="12">
+        <v>1</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="B51" s="12">
+        <v>1</v>
+      </c>
+      <c r="C51" s="12">
+        <v>1</v>
+      </c>
+      <c r="D51" s="13">
+        <v>1</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0</v>
+      </c>
+      <c r="F51" s="12">
+        <v>0</v>
+      </c>
+      <c r="G51" s="12">
+        <v>1</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="B52" s="12">
+        <v>1</v>
+      </c>
+      <c r="C52" s="12">
+        <v>1</v>
+      </c>
+      <c r="D52" s="13">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0</v>
+      </c>
+      <c r="F52" s="12">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12">
+        <v>1</v>
+      </c>
+      <c r="H52" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="B53" s="12">
+        <v>1</v>
+      </c>
+      <c r="C53" s="12">
+        <v>0</v>
+      </c>
+      <c r="D53" s="13">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0</v>
+      </c>
+      <c r="F53" s="12">
+        <v>0</v>
+      </c>
+      <c r="G53" s="12">
+        <v>1</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
         <f>A19</f>
         <v>6</v>
       </c>
-      <c r="B42" s="13">
-        <f t="shared" ref="B42:H42" si="13">B53*50</f>
-        <v>50</v>
-      </c>
-      <c r="C42" s="13">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="D42" s="13">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="13">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="13">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="13">
-        <f t="shared" si="13"/>
-        <v>50</v>
-      </c>
-      <c r="H42" s="13">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
-        <f>A20</f>
-        <v>7</v>
-      </c>
-      <c r="B43" s="13">
-        <f t="shared" ref="B43:H43" si="14">B54*50</f>
-        <v>50</v>
-      </c>
-      <c r="C43" s="13">
-        <f t="shared" si="14"/>
-        <v>50</v>
-      </c>
-      <c r="D43" s="13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="13">
-        <f t="shared" si="14"/>
-        <v>50</v>
-      </c>
-      <c r="H43" s="13">
-        <f t="shared" si="14"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
-        <f>A13</f>
-        <v>0</v>
-      </c>
-      <c r="B48" s="13">
-        <v>0</v>
-      </c>
-      <c r="C48" s="13">
-        <v>0</v>
-      </c>
-      <c r="D48" s="13">
-        <v>0</v>
-      </c>
-      <c r="E48" s="13">
-        <v>0</v>
-      </c>
-      <c r="F48" s="13">
-        <v>0</v>
-      </c>
-      <c r="G48" s="13">
-        <v>0</v>
-      </c>
-      <c r="H48" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
-        <f t="shared" ref="A49:A53" si="15">A14</f>
-        <v>1</v>
-      </c>
-      <c r="B49" s="13">
-        <v>1</v>
-      </c>
-      <c r="C49" s="13">
-        <v>0</v>
-      </c>
-      <c r="D49" s="14">
-        <v>1</v>
-      </c>
-      <c r="E49" s="13">
-        <v>0</v>
-      </c>
-      <c r="F49" s="13">
-        <v>0</v>
-      </c>
-      <c r="G49" s="13">
-        <v>1</v>
-      </c>
-      <c r="H49" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="B50" s="13">
-        <v>1</v>
-      </c>
-      <c r="C50" s="13">
-        <v>1</v>
-      </c>
-      <c r="D50" s="14">
-        <v>0</v>
-      </c>
-      <c r="E50" s="13">
-        <v>0</v>
-      </c>
-      <c r="F50" s="13">
-        <v>0</v>
-      </c>
-      <c r="G50" s="13">
-        <v>1</v>
-      </c>
-      <c r="H50" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="B51" s="13">
-        <v>1</v>
-      </c>
-      <c r="C51" s="13">
-        <v>1</v>
-      </c>
-      <c r="D51" s="14">
-        <v>1</v>
-      </c>
-      <c r="E51" s="13">
-        <v>0</v>
-      </c>
-      <c r="F51" s="13">
-        <v>0</v>
-      </c>
-      <c r="G51" s="13">
-        <v>1</v>
-      </c>
-      <c r="H51" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="B52" s="13">
-        <v>1</v>
-      </c>
-      <c r="C52" s="13">
-        <v>1</v>
-      </c>
-      <c r="D52" s="14">
-        <v>0</v>
-      </c>
-      <c r="E52" s="13">
-        <v>0</v>
-      </c>
-      <c r="F52" s="13">
-        <v>0</v>
-      </c>
-      <c r="G52" s="13">
-        <v>1</v>
-      </c>
-      <c r="H52" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="17">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="B53" s="13">
-        <v>1</v>
-      </c>
-      <c r="C53" s="13">
-        <v>0</v>
-      </c>
-      <c r="D53" s="14">
-        <v>0</v>
-      </c>
-      <c r="E53" s="13">
-        <v>0</v>
-      </c>
-      <c r="F53" s="13">
-        <v>0</v>
-      </c>
-      <c r="G53" s="13">
-        <v>1</v>
-      </c>
-      <c r="H53" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <f>A19</f>
-        <v>6</v>
-      </c>
-      <c r="B54" s="13">
-        <v>1</v>
-      </c>
-      <c r="C54" s="13">
-        <v>1</v>
-      </c>
-      <c r="D54" s="14">
-        <v>0</v>
-      </c>
-      <c r="E54" s="13">
-        <v>0</v>
-      </c>
-      <c r="F54" s="13">
-        <v>0</v>
-      </c>
-      <c r="G54" s="13">
-        <v>1</v>
-      </c>
-      <c r="H54" s="13">
+      <c r="B54" s="12">
+        <v>1</v>
+      </c>
+      <c r="C54" s="12">
+        <v>1</v>
+      </c>
+      <c r="D54" s="13">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0</v>
+      </c>
+      <c r="F54" s="12">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12">
+        <v>1</v>
+      </c>
+      <c r="H54" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <f>A20</f>
-        <v>7</v>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -2406,6 +2434,16 @@
   <conditionalFormatting sqref="E4:E10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
         <color theme="4" tint="-0.249977111117893"/>
@@ -2413,16 +2451,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
       <formula1>#REF!</formula1>
       <formula2>-3/-12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3">
-      <formula1>#REF!</formula1>
-      <formula2>-#REF!</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:K3">
       <formula1>#REF!</formula1>
       <formula2>-#REF!</formula2>
     </dataValidation>
